--- a/performance_experiments/profile/gprof_profile_table.xlsx
+++ b/performance_experiments/profile/gprof_profile_table.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark.klaisoongnoen/CLionProjects/pumas_and_hares/performance_experiments/profiling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark.klaisoongnoen/CLionProjects/pumas_and_hares/performance_experiments/profile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27CC6E6-B0C9-A240-9EDE-4E3FE62B6725}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08532F-70DF-2E4A-A502-08C44002A35D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{3DE054BE-8916-174A-AE5E-637911624FEA}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16080" activeTab="1" xr2:uid="{3DE054BE-8916-174A-AE5E-637911624FEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="raw" sheetId="2" r:id="rId2"/>
-    <sheet name="raw_v2" sheetId="3" r:id="rId3"/>
+    <sheet name="exec_time" sheetId="1" r:id="rId1"/>
+    <sheet name="memory_snapshots" sheetId="4" r:id="rId2"/>
+    <sheet name="raw" sheetId="2" r:id="rId3"/>
+    <sheet name="raw_v2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$11:$A$25</definedName>
-    <definedName name="gprof_profile_1" localSheetId="0">input!$A$1:$R$24</definedName>
-    <definedName name="gprof_profile_1" localSheetId="2">raw_v2!$A$1:$R$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exec_time!$A$11:$A$25</definedName>
+    <definedName name="gprof_profile_1" localSheetId="0">exec_time!$A$1:$R$24</definedName>
+    <definedName name="gprof_profile_1" localSheetId="3">raw_v2!$A$1:$R$24</definedName>
+    <definedName name="valgrind_massif_raw" localSheetId="1">memory_snapshots!$B$1:$F$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,11 +75,23 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" xr16:uid="{D37984AD-671F-4F47-8285-FAF606ACA0A8}" name="valgrind_massif_raw" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/mark.klaisoongnoen/OneDrive/00_HPC_with_Data_Science/Programming Skills/Coursework/Performance Experiments/valgrind_massif_raw.txt" decimal="," thousands="." tab="0" space="1" consecutive="1">
+      <textFields count="6">
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="127">
   <si>
     <t>time</t>
   </si>
@@ -434,6 +448,30 @@
   </si>
   <si>
     <t>others</t>
+  </si>
+  <si>
+    <t>time(i)</t>
+  </si>
+  <si>
+    <t>total(B)</t>
+  </si>
+  <si>
+    <t>useful-heap(B)</t>
+  </si>
+  <si>
+    <t>extra-heap(B)</t>
+  </si>
+  <si>
+    <t>stacks(B)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>time(i)raw</t>
+  </si>
+  <si>
+    <t>total(B)raw</t>
   </si>
 </sst>
 </file>
@@ -469,10 +507,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -495,6 +534,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="valgrind_massif_raw" connectionId="3" xr16:uid="{45E09F7E-DA3F-424D-AFFE-7AC2A0125058}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gprof_profile_1" connectionId="2" xr16:uid="{AECE464F-0507-A344-8124-0147A08166B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -797,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C6F3E3-CF54-D242-BC06-E99D080AF3B6}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1173,6 +1216,2075 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6642BC1D-3C33-FC4B-BC08-87DD2220CB5C}">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <f>H3/1000000</f>
+        <v>6.9660650000000004</v>
+      </c>
+      <c r="C3" s="3">
+        <f>I3/1000</f>
+        <v>211.99199999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:E3" si="0">J3/1000</f>
+        <v>207.959</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6966065</v>
+      </c>
+      <c r="I3">
+        <v>211992</v>
+      </c>
+      <c r="J3">
+        <v>207959</v>
+      </c>
+      <c r="K3">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B57" si="1">H4/1000000</f>
+        <v>13.621786</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C57" si="2">I4/1000</f>
+        <v>237.10400000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D57" si="3">J4/1000</f>
+        <v>233.048</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E57" si="4">K4/1000</f>
+        <v>4.056</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>13621786</v>
+      </c>
+      <c r="I4">
+        <v>237104</v>
+      </c>
+      <c r="J4">
+        <v>233048</v>
+      </c>
+      <c r="K4">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>19.168536</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>19168536</v>
+      </c>
+      <c r="I5">
+        <v>269872</v>
+      </c>
+      <c r="J5">
+        <v>265816</v>
+      </c>
+      <c r="K5">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="1"/>
+        <v>22.932255999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>22932256</v>
+      </c>
+      <c r="I6">
+        <v>269872</v>
+      </c>
+      <c r="J6">
+        <v>265816</v>
+      </c>
+      <c r="K6">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="1"/>
+        <v>29.689285999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>29689286</v>
+      </c>
+      <c r="I7">
+        <v>269872</v>
+      </c>
+      <c r="J7">
+        <v>265816</v>
+      </c>
+      <c r="K7">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>34.940480000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="2"/>
+        <v>400.43200000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="3"/>
+        <v>396.37599999999998</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>34940480</v>
+      </c>
+      <c r="I8">
+        <v>400432</v>
+      </c>
+      <c r="J8">
+        <v>396376</v>
+      </c>
+      <c r="K8">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>39.284550000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>39284550</v>
+      </c>
+      <c r="I9">
+        <v>335408</v>
+      </c>
+      <c r="J9">
+        <v>331352</v>
+      </c>
+      <c r="K9">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>46.324629000000002</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>46324629</v>
+      </c>
+      <c r="I10">
+        <v>335408</v>
+      </c>
+      <c r="J10">
+        <v>331352</v>
+      </c>
+      <c r="K10">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>51.890335</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>437.80799999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>433.76499999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0430000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>51890335</v>
+      </c>
+      <c r="I11">
+        <v>437808</v>
+      </c>
+      <c r="J11">
+        <v>433765</v>
+      </c>
+      <c r="K11">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>54.504418000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="2"/>
+        <v>20.324000000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="3"/>
+        <v>199.25299999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="4"/>
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>54504418</v>
+      </c>
+      <c r="I12">
+        <v>20324</v>
+      </c>
+      <c r="J12">
+        <v>199253</v>
+      </c>
+      <c r="K12">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>60.727617000000002</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="2"/>
+        <v>22.071999999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>216.66399999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60727617</v>
+      </c>
+      <c r="I13">
+        <v>22072</v>
+      </c>
+      <c r="J13">
+        <v>216664</v>
+      </c>
+      <c r="K13">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>65.391957000000005</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="2"/>
+        <v>237.10400000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="3"/>
+        <v>233.048</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>65391957</v>
+      </c>
+      <c r="I14">
+        <v>237104</v>
+      </c>
+      <c r="J14">
+        <v>233048</v>
+      </c>
+      <c r="K14">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>72.337539000000007</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>72337539</v>
+      </c>
+      <c r="I15">
+        <v>269872</v>
+      </c>
+      <c r="J15">
+        <v>265816</v>
+      </c>
+      <c r="K15">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="1"/>
+        <v>80.160032999999999</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="2"/>
+        <v>269.33600000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="3"/>
+        <v>265.303</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>80160033</v>
+      </c>
+      <c r="I16">
+        <v>269336</v>
+      </c>
+      <c r="J16">
+        <v>265303</v>
+      </c>
+      <c r="K16">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
+        <v>87.983120999999997</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="2"/>
+        <v>334.87200000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="3"/>
+        <v>330.839</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>87983121</v>
+      </c>
+      <c r="I17">
+        <v>334872</v>
+      </c>
+      <c r="J17">
+        <v>330839</v>
+      </c>
+      <c r="K17">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="1"/>
+        <v>93.197719000000006</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>93197719</v>
+      </c>
+      <c r="I18">
+        <v>335408</v>
+      </c>
+      <c r="J18">
+        <v>331352</v>
+      </c>
+      <c r="K18">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="1"/>
+        <v>101.010864</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>101010864</v>
+      </c>
+      <c r="I19">
+        <v>335408</v>
+      </c>
+      <c r="J19">
+        <v>331352</v>
+      </c>
+      <c r="K19">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
+        <v>108.849262</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="2"/>
+        <v>212.52799999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="3"/>
+        <v>208.47200000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>108849262</v>
+      </c>
+      <c r="I20">
+        <v>212528</v>
+      </c>
+      <c r="J20">
+        <v>208472</v>
+      </c>
+      <c r="K20">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="1"/>
+        <v>112.89240100000001</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="2"/>
+        <v>237.10400000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="3"/>
+        <v>233.048</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>112892401</v>
+      </c>
+      <c r="I21">
+        <v>237104</v>
+      </c>
+      <c r="J21">
+        <v>233048</v>
+      </c>
+      <c r="K21">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="1"/>
+        <v>118.635907</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="2"/>
+        <v>237.10400000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="3"/>
+        <v>233.048</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>118635907</v>
+      </c>
+      <c r="I22">
+        <v>237104</v>
+      </c>
+      <c r="J22">
+        <v>233048</v>
+      </c>
+      <c r="K22">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="1"/>
+        <v>122.94240600000001</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="2"/>
+        <v>269.33600000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="3"/>
+        <v>265.303</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>122942406</v>
+      </c>
+      <c r="I23">
+        <v>269336</v>
+      </c>
+      <c r="J23">
+        <v>265303</v>
+      </c>
+      <c r="K23">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="1"/>
+        <v>127.25006399999999</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>127250064</v>
+      </c>
+      <c r="I24">
+        <v>269872</v>
+      </c>
+      <c r="J24">
+        <v>265816</v>
+      </c>
+      <c r="K24">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="1"/>
+        <v>132.99662699999999</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>132996627</v>
+      </c>
+      <c r="I25">
+        <v>269872</v>
+      </c>
+      <c r="J25">
+        <v>265816</v>
+      </c>
+      <c r="K25">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="1"/>
+        <v>137.304293</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>137304293</v>
+      </c>
+      <c r="I26">
+        <v>335408</v>
+      </c>
+      <c r="J26">
+        <v>331352</v>
+      </c>
+      <c r="K26">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="1"/>
+        <v>143.050838</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>143050838</v>
+      </c>
+      <c r="I27">
+        <v>335408</v>
+      </c>
+      <c r="J27">
+        <v>331352</v>
+      </c>
+      <c r="K27">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="1"/>
+        <v>148.79470900000001</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="2"/>
+        <v>334.87200000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="3"/>
+        <v>330.839</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>148794709</v>
+      </c>
+      <c r="I28">
+        <v>334872</v>
+      </c>
+      <c r="J28">
+        <v>330839</v>
+      </c>
+      <c r="K28">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="1"/>
+        <v>155.98023599999999</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="2"/>
+        <v>20.324000000000002</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="3"/>
+        <v>199.25299999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="4"/>
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>155980236</v>
+      </c>
+      <c r="I29">
+        <v>20324</v>
+      </c>
+      <c r="J29">
+        <v>199253</v>
+      </c>
+      <c r="K29">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="1"/>
+        <v>160.28745900000001</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="2"/>
+        <v>220.184</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="3"/>
+        <v>216.15100000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>160287459</v>
+      </c>
+      <c r="I30">
+        <v>220184</v>
+      </c>
+      <c r="J30">
+        <v>216151</v>
+      </c>
+      <c r="K30">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="1"/>
+        <v>166.031565</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="2"/>
+        <v>236.56800000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="3"/>
+        <v>232.535</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>166031565</v>
+      </c>
+      <c r="I31">
+        <v>236568</v>
+      </c>
+      <c r="J31">
+        <v>232535</v>
+      </c>
+      <c r="K31">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="1"/>
+        <v>171.773281</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="2"/>
+        <v>269.33600000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="3"/>
+        <v>265.303</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>171773281</v>
+      </c>
+      <c r="I32">
+        <v>269336</v>
+      </c>
+      <c r="J32">
+        <v>265303</v>
+      </c>
+      <c r="K32">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="1"/>
+        <v>178.95762099999999</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>178957621</v>
+      </c>
+      <c r="I33">
+        <v>269872</v>
+      </c>
+      <c r="J33">
+        <v>265816</v>
+      </c>
+      <c r="K33">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="1"/>
+        <v>183.266807</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>183266807</v>
+      </c>
+      <c r="I34">
+        <v>269872</v>
+      </c>
+      <c r="J34">
+        <v>265816</v>
+      </c>
+      <c r="K34">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="1"/>
+        <v>191.656204</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="2"/>
+        <v>334.87200000000001</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="3"/>
+        <v>330.839</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>191656204</v>
+      </c>
+      <c r="I35">
+        <v>334872</v>
+      </c>
+      <c r="J35">
+        <v>330839</v>
+      </c>
+      <c r="K35">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="1"/>
+        <v>197.95026100000001</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>197950261</v>
+      </c>
+      <c r="I36">
+        <v>335408</v>
+      </c>
+      <c r="J36">
+        <v>331352</v>
+      </c>
+      <c r="K36">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="1"/>
+        <v>202.147041</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>202147041</v>
+      </c>
+      <c r="I37">
+        <v>335408</v>
+      </c>
+      <c r="J37">
+        <v>331352</v>
+      </c>
+      <c r="K37">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="1"/>
+        <v>210.53816599999999</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="2"/>
+        <v>212.52799999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="3"/>
+        <v>208.47200000000001</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>210538166</v>
+      </c>
+      <c r="I38">
+        <v>212528</v>
+      </c>
+      <c r="J38">
+        <v>208472</v>
+      </c>
+      <c r="K38">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="1"/>
+        <v>218.93031500000001</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="2"/>
+        <v>237.10400000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="3"/>
+        <v>233.048</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>218930315</v>
+      </c>
+      <c r="I39">
+        <v>237104</v>
+      </c>
+      <c r="J39">
+        <v>233048</v>
+      </c>
+      <c r="K39">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="1"/>
+        <v>223.12721999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="2"/>
+        <v>269.33600000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="3"/>
+        <v>265.303</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>223127220</v>
+      </c>
+      <c r="I40">
+        <v>269336</v>
+      </c>
+      <c r="J40">
+        <v>265303</v>
+      </c>
+      <c r="K40">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="1"/>
+        <v>231.51861</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>231518610</v>
+      </c>
+      <c r="I41">
+        <v>269872</v>
+      </c>
+      <c r="J41">
+        <v>265816</v>
+      </c>
+      <c r="K41">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="1"/>
+        <v>235.71343899999999</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>235713439</v>
+      </c>
+      <c r="I42">
+        <v>269872</v>
+      </c>
+      <c r="J42">
+        <v>265816</v>
+      </c>
+      <c r="K42">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="1"/>
+        <v>242.00765699999999</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>242007657</v>
+      </c>
+      <c r="I43">
+        <v>335408</v>
+      </c>
+      <c r="J43">
+        <v>331352</v>
+      </c>
+      <c r="K43">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="1"/>
+        <v>248.301286</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="2"/>
+        <v>334.87200000000001</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="3"/>
+        <v>330.839</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>248301286</v>
+      </c>
+      <c r="I44">
+        <v>334872</v>
+      </c>
+      <c r="J44">
+        <v>330839</v>
+      </c>
+      <c r="K44">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="1"/>
+        <v>252.49804900000001</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="2"/>
+        <v>334.87200000000001</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="3"/>
+        <v>330.839</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>252498049</v>
+      </c>
+      <c r="I45">
+        <v>334872</v>
+      </c>
+      <c r="J45">
+        <v>330839</v>
+      </c>
+      <c r="K45">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="1"/>
+        <v>258.79342500000001</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="2"/>
+        <v>20.536000000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="3"/>
+        <v>201.304</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>258793425</v>
+      </c>
+      <c r="I46">
+        <v>20536</v>
+      </c>
+      <c r="J46">
+        <v>201304</v>
+      </c>
+      <c r="K46">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="1"/>
+        <v>265.08664099999999</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="2"/>
+        <v>220.184</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="3"/>
+        <v>216.15100000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>265086641</v>
+      </c>
+      <c r="I47">
+        <v>220184</v>
+      </c>
+      <c r="J47">
+        <v>216151</v>
+      </c>
+      <c r="K47">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="1"/>
+        <v>269.28277300000002</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="2"/>
+        <v>237.10400000000001</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="3"/>
+        <v>233.048</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>269282773</v>
+      </c>
+      <c r="I48">
+        <v>237104</v>
+      </c>
+      <c r="J48">
+        <v>233048</v>
+      </c>
+      <c r="K48">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" si="1"/>
+        <v>275.57812899999999</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>275578129</v>
+      </c>
+      <c r="I49">
+        <v>269872</v>
+      </c>
+      <c r="J49">
+        <v>265816</v>
+      </c>
+      <c r="K49">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="1"/>
+        <v>281.87149899999997</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="2"/>
+        <v>269.87200000000001</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="3"/>
+        <v>265.81599999999997</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>281871499</v>
+      </c>
+      <c r="I50">
+        <v>269872</v>
+      </c>
+      <c r="J50">
+        <v>265816</v>
+      </c>
+      <c r="K50">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="1"/>
+        <v>288.16397599999999</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="2"/>
+        <v>269.33600000000001</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="3"/>
+        <v>265.303</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>288163976</v>
+      </c>
+      <c r="I51">
+        <v>269336</v>
+      </c>
+      <c r="J51">
+        <v>265303</v>
+      </c>
+      <c r="K51">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="1"/>
+        <v>290.77934099999999</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>290779341</v>
+      </c>
+      <c r="I52">
+        <v>335408</v>
+      </c>
+      <c r="J52">
+        <v>331352</v>
+      </c>
+      <c r="K52">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="1"/>
+        <v>293.39402799999999</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>293394028</v>
+      </c>
+      <c r="I53">
+        <v>335408</v>
+      </c>
+      <c r="J53">
+        <v>331352</v>
+      </c>
+      <c r="K53">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="1"/>
+        <v>296.008287</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="2"/>
+        <v>334.87200000000001</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="3"/>
+        <v>330.839</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>296008287</v>
+      </c>
+      <c r="I54">
+        <v>334872</v>
+      </c>
+      <c r="J54">
+        <v>330839</v>
+      </c>
+      <c r="K54">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="1"/>
+        <v>298.624641</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>298624641</v>
+      </c>
+      <c r="I55">
+        <v>335408</v>
+      </c>
+      <c r="J55">
+        <v>331352</v>
+      </c>
+      <c r="K55">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="1"/>
+        <v>301.240049</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="2"/>
+        <v>334.87200000000001</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="3"/>
+        <v>330.839</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>301240049</v>
+      </c>
+      <c r="I56">
+        <v>334872</v>
+      </c>
+      <c r="J56">
+        <v>330839</v>
+      </c>
+      <c r="K56">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" si="1"/>
+        <v>303.85740399999997</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="2"/>
+        <v>335.40800000000002</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="3"/>
+        <v>331.35199999999998</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="4"/>
+        <v>4.056</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>303857404</v>
+      </c>
+      <c r="I57">
+        <v>335408</v>
+      </c>
+      <c r="J57">
+        <v>331352</v>
+      </c>
+      <c r="K57">
+        <v>4056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE20EC61-774C-314E-832E-0F19E1684D1F}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1579,7 +3691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7F459-4E9A-8A44-A86E-FD765ACA0F2E}">
   <dimension ref="A1:G24"/>
   <sheetViews>
